--- a/data crawler/shortdatasheet.xlsx
+++ b/data crawler/shortdatasheet.xlsx
@@ -14,6 +14,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Filtered Apps'!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Filtered Apps'!$A$1:$S$29</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="656">
   <si>
     <t xml:space="preserve">Sr.</t>
   </si>
@@ -84,6 +85,714 @@
     <t xml:space="preserve">Stars</t>
   </si>
   <si>
+    <t xml:space="preserve">at.tomtasche.reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenDocument Reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12.6 (59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPL-3.0-or-later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opendocument.app/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/TomTasche/OpenDocument.droid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/TomTasche/OpenDocument.droid/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read odf documents. ODF is a document format that can be read by a wide variety of programs, including OpenOffice and LibreOffice. Anti-feature: Tracking. A recent version had code for sending some device info via HTTP POST to a appspot.com server. A proprietary ad library was removed before building. More recent versions have several more proprietary binaries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['2.0.7 (34)', '1.3.2 (24)', '1.3.0 (22)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=at.tomtasche.reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch.blinkenlights.android.vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen to and manage songs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.0 (11000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPL-3.0-only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vanilla-music.github.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/vanilla-music/vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/vanilla-music/vanilla/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.rawgit.com/vanilla-music/vanilla/HEAD/app/src/main/assets/about.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music player with a simple interface similar to the stock music player. Supports browsing by folder, queueing, shake-to-skip and more. Supports the same audio formats as the stock music player since the system media APIs are used. This is a fork of https://f-droid.org/packages/org.kreed.vanilla which is no longer being developed by its author. We keep that in the repo as it supports Android versions below 4.0.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['1.1.0 (11000)', '1.0.92 (10923)', '1.0.91 (10910)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.kanedias.vanilla.coverfetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chat.rocket.android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocket.Chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Communication Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12.1 (2143)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rocket.chat/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RocketChat/Rocket.Chat.ReactNative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RocketChat/Rocket.Chat.ReactNative/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RocketChat/Rocket.Chat.ReactNative/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RocketChat/Rocket.Chat#donate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">''Note:''' This FOSS build variant currently lacks any push notification support. Rocket.Chat is a free and open source team chat collaboration platform that allows users to communicate securely in real-time across devices on web, desktop or mobile and to customize their interface with a range of plugins, themes and integrations with other key software. By opting for Rocket.Chat, users also benefit from free audio and video conferencing, guest access, screen and file sharing, LiveChat, LDAP Group Sync, two-factor authentication (2FA), E2E encryption, SSO, dozens of OAuth providers and unlimited users, guests, channels, messages, searches and files. Users can set up Rocket.Chat on cloud or by hosting their own servers on-premises. With more than 700 developer-contributors and over 17k stars on Github, Rocket.Chat has the largest and most active community of chat developers in the open source communication sector. When you choose Rocket.Chat, you join a passionate community who help to grow the platform with us! '''KEY FEATURES:''' * Free Open Source Software * Hassle free MIT license * BYOS (bring your own server) * Multiple Rooms * Direct Messages * Private Groups * Public Channels * Desktop and Mobile Notifications * Edit and Delete Sent Messages * Mentions * Avatars * Markdown * Emojis * Choose between 3 themes: Light, Dark, Black * Sort conversations alphabetically or group by activity, unread or favourites * Transcripts / History * File Upload / Sharing * I18n - Internationalization with Lingohub * Hubot Friendly - Hubot Integration Project * Media Embeds * Link Previews * LDAP Authentication * REST-full APIs * Remote Locations Video Monitoring * Native Cross-Platform Desktop Application '''GET IT NOW:''' * Learn more and install: [https://rocket.chat] * ONE-CLICK-DEPLOYMENT ‚Äì See instructions on our GitHub repository: [https://github.com/RocketChat]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['4.12.1 (2143)', '4.11.0 (2137)', '3.5.1 (2077)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=chat.rocket.android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co.epitre.aelf_lectures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AELF - Bible and day's reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple and discrete daily reading application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.2 (69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://epitre.co/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/HackMyChurch/aelf-dailyreadings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/HackMyChurch/aelf-dailyreadings/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">''The Word of God, nothing but the Word of God''' * Find the entire Mass and liturgy of the hours from the liturgical translation. Mass, readings, lauds, third, sexte, none, vespers, complies. * Meditate on speech, without distractions. Sober and unique full screen display, with no risk of going into standby. * Do not look, there is no flourish, no distraction, just the Word. '''Accessible, for everyone''' * Use your phone, it is compatible. Without sacrificing the look. (Android 2.2+ to Android 5.1) * Adjust the text size according to your preferences, depending on your screen. * Let us guide you with "Talkback". The application is compatible. * Read without suffering. The texts are formatted. '''Anytime, anywhere''' * Automatically synchronize texts to meditate on them even from a cave... or the countryside. * Navigate through time, the date is adjustable at least one month in advance. '''In a land of trust''' * This application uses the Internet for only one thing: to load the texts of the Word. No data other than Android automatic error reports, whether personal or statistical, is transmitted by the application. * Application proposed on a voluntary basis, without any publicity with the support of the ''Association √©piscopale liturgique pour les pays francophones'' (http://www.aelf.org) * Texts and logo reproduced with the kind permission of the AELF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['2.7.2 (69)', '2.7.0 (67)', '2.6.4 (66)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=co.epitre.aelf_lectures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.adam.aslfms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Scrobbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last.fm/Libre.fm Scrobbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.0 (61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache-2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://simple-last-fm-scrobbler.github.io/sls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/simple-last-fm-scrobbler/sls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/simple-last-fm-scrobbler/sls/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/simple-last-fm-scrobbler/sls/blob/HEAD/app/src/main/assets/changelog.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrobbling means submitting listening information to Last.fm and/or Libre.fm; you can then get music recommendations and view your listening history and statistics. Most media players will work. Older android versions pre-Lollipop, the media player that you use must be able to work with the API e.g. https://f-droid.org/packages/org.kreed.vanilla or https://f-droid.org/packages/jp.co.kayo.android.localplayer. Apps can also hook into the Now-Playing broadcast: for example, https://f-droid.org/packages/com.jlyr can use it to grab lyrics. More info about scrobbling can be found on Last.fm's FAQ[0]. [0] http://www.last.fm/help/faq?category=Scrobbling#201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['1.7.0 (61)', '1.6.7 (58)', '1.6.4 (55)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.adam.aslfms&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.amaze.filemanager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage local files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.3 (92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forum.xda-developers.com/android/apps-games/app-amaze-file-managermaterial-theme-t2937314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/TeamAmaze/AmazeFileManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/TeamAmaze/AmazeFileManager/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light and smooth file manager following the Material Design guidelines. Features: * Basic features like cut, copy, delete, compress, extract etc. easily accessible * Work on multiple tabs at same time * Multiple themes with cool icons * Navigation drawer for quick navigation * App Manager to open, backup, or directly uninstall any app * Quickly access history, access bookmarks or search for any file * Root explorer for advanced u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['3.1.2 RC1 (54)', '3.1.1 (44)', '3.1.0 Beta 2 (43)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.amaze.filemanager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.ames.books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BookList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unofficial Google Books viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 (7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science &amp; Education, Reading, Multimedia, Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/andviane/google-books-android-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/andviane/google-books-android-viewer/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the demo/wrapping app to demonstrate the capabilities of the Uncover library. This library builds a bridge between "infinitely scrolling view" that requires fast synchronous data model and web resource or database that uses slow asynchronous and strongly prefers more than a single item per request. The library performs many internal optimizations on how the data are fetched. Unlike many alternative approaches (mostly centered around the scroll listener) it features clean classic MVC design. The mentioned library is the open source project under Apache 2.0 license. The wrapping app (same repository) is under GPLv3. The demo app is fully usable by the end non-programming user. It allows to view the large Google Books directory, displaying titles and book covers. If it is possible to purchase the book from some vendor, the "book purchase link" appears in the book details view. Tapping on it opens the web browser of your device (no longer this app) and you may read more details or even to make a purchase there. The app communicates with Google server with the help of com.google.apis:google-api-services-books library that if fetched from Maven Central. Maven Central specifies the license of this library as Apache 2.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['1.7 (7)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.ames.books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.apps.adrcotfas.goodtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodtime - Minimalist Pomodoro Timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productivity timer designed to keep you on track and free of distractions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.6 (130)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/goodtime-productivity/Goodtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/goodtime-productivity/Goodtime/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/goodtime-productivity/Goodtime/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paypal.com/cgi-bin/webscr?cmd=_s-xclick&amp;hosted_button_id=CH2SJKS6GXG6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minimalist but powerful productivity timer designed to keep you focused and free of distractions. Alternate between focused work sessions and short breaks handled by the app. Get rid of procrastination and improve your time management! ‚è≥ split your work into sessions of focus and then reward yourself with a break ‚òï after more sessions of work, take a longer break '''Features:''' * Lightweight and battery friendly * Configurable timer * Pause, skip or add 60 seconds * Detailed statistics * Disable sound and Wi-Fi connection during the work sessions * AMOLED-friendly user interface * Colored labels * Timer styles * Manually add sessions * Edit completed sessions * Backup export and import * Export statistics to CSV * Screensaver mode * Themes * Separate notification sound for work and break * Insistent notifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['2.2.6 (130)', '2.2.5 (129)', '2.2.4 (128)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.apps.adrcotfas.goodtime&amp;utm_source=global_co&amp;utm_medium=prtnr&amp;utm_content=Mar2515&amp;utm_campaign=PartBadge&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.better.alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Alarm Clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improved alarm clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07.01 (30701)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/yuriykulikov/AlarmClock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/yuriykulikov/AlarmClock/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/yuriykulikov/AlarmClock/commits/develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paypal.me/YuriyKulikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart alarm clock that includes many improvements over the stock alarm clock. It does not have any extra features such as dock mode or a world clock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['3.07.01 (30701)', '3.05.05 (30505)', '2.9.01 (2901)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.better.alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.blogspot.e_kanivets.moneytracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money Tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track your money easily and fully free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3 (35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/xorum-io/open_money_tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/xorum-io/open_money_tracker/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/xorum-io/open_money_tracker/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you want to save some money or just to know where is your money come from and to? Then this app is for you. You can manage you incomes and expenses in two clicks, then take a report in two clicks more. Following features are available in current version: *Manage expenses/incomes. *Create reports for period. *Manage accounts with different currencies. *Transfer money between accounts. *Manage exchange rates between currencies. *Quick summaries. *Charts. *CSV export/import. *Dropbox backups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['2.1.3 (35)', '2.1.2 (34)', '2.1.1 (33)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.blogspot.e_kanivets.moneytracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.byagowi.persiancalendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persian Calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View the Persian calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5.1 (651)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/persian-calendar/DroidPersianCalendar/wiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/persian-calendar/DroidPersianCalendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/persian-calendar/DroidPersianCalendar/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/persian-calendar/DroidPersianCalendar/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persian calendar is not supported in Android natively so this can be used instead. Includes widgets and dashclock provider, Compass/Qibla and Athan, and Afghanistan holidays, Dari, Kurdish and Pashto support.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['6.5.1 (651)', '6.5.0 (650)', '6.4.1 (641)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.byagowi.persiancalendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.danielkim.soundrecorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound Recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record audio files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0 (130)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sites.google.com/site/danielyehunkim/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/dkim0419/SoundRecorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/dkim0419/SoundRecorder/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/dkim0419/SoundRecorder/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple sound recorder implementing material design. Use Sound Recorder to record lectures, singing, business meetings, notes and more! '''Features:''' * Material Design * Easy to Use * No Time Limits * MP4 Format * AAC Encoder * Manage files easily * Open source * NO ADVERTISEMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['1.3.0 (130)', '1.2.5 (8)', '1.2.2 (5)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.danielkim.soundrecorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.duckduckgo.mobile.android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDuckGo Privacy Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy, simplified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86.2 (58602)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://duckduckgo.com/app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/duckduckgo/Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/duckduckgo/Android/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/duckduckgo/Android/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At DuckDuckGo, we believe the Internet shouldn‚Äôt feel so creepy, and getting the privacy you deserve online should be as simple as closing the blinds. Our app provides the privacy essentials you need to seamlessly take control of your personal information as you search and browse the web, no matter where the Internet takes you: * Escape Advertising Tracker Networks ‚Äî Our Privacy Protection will block all the hidden third-party trackers we can find, exposing the major advertising networks tracking you over time, so that you can track who‚Äôs trying to track you. * Increase Encryption Protection ‚Äî We force sites to use an encrypted connection where available, protecting your data from prying eyes, like ISPs. * Search Privately ‚Äî You share your most personal information with your search engine, like your financial, medical, and political questions. What you search for is your own business, which is why DuckDuckGo search doesn‚Äôt track you. Ever. * Decode Privacy Policies ‚Äî We‚Äôve partnered with Terms of Service Didn‚Äôt Read to include their scores and labels of website terms of service and privacy policies, where available. As you search and browse, the DuckDuckGo Privacy Browser shows you a Privacy Grade rating when you visit a website (A-F). This rating lets you see how protected you are at a glance, dig into the details to see who we caught trying to track you, and learn how we enhanced the underlying site‚Äôs privacy measures. The Privacy Grade is scored automatically based on the prevalence of hidden tracker networks, encryption availability, and website privacy practices. Our app provides standard browsing functionality including tabs, bookmarks, and autocomplete. In addition to strong Privacy Protection as described above, we also packed in some extra privacy features into the browser itself: * Fire Button ‚Äî Clear all your tabs and data with one tap. * Application Lock ‚Äî Secure the app with Touch ID or Face ID. Too many people believe you simply can‚Äôt expect privacy on the Internet. We‚Äôre fighting to change that, and have made it our mission to set a new standard of trust online. Install DuckDuckGo and take back your privacy! Antifeatures: * NonFreeNet - Uses DuckDuckGo as the exclusive search engine, for which the source code is not available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['5.86.2 (58602)', '5.85.3 (58503)', '5.85.1 (58501)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.duckduckgo.mobile.android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.faltenreich.diaguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes diary and food database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8.4 (53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports &amp; Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://faltenreich.wordpress.com/2019/03/30/diaguard/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Faltenreich/Diaguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Faltenreich/Diaguard/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Faltenreich/Diaguard/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paypal.com/cgi-bin/webscr?cmd=_s-xclick&amp;hosted_button_id=AM6HG633T4BWY&amp;source=url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aguard is a free of cost, ad-free and open source app for people with diabetes mellitus. It replaces the handwritten diary and helps the user to quickly and easily record, evaluate and export his blood sugar and other important data as PDF or CSV. Thanks to the clearly arranged interface, the user always has an overview of his diabetes. The app also provides information on several thousand foods including carbohydrates and other nutrients. Features ‚Ä¢ Quickly and easily track your blood glucose, insulin, carbohydrates, A1c, activity, weight, pulse, blood pressure and oxygen saturation ‚Ä¢ Customizable units ‚Ä¢ Visualize your blood glucose level in a graph ‚Ä¢ Detailed logs of your data ‚Ä¢ Food database with thousands of entries ‚Ä¢ PDF and CSV export ‚Ä¢ Backup ‚Ä¢ Reminder functionality ‚Ä¢ Estimated HbA1c ‚Ä¢ Statistics ‚Ä¢ Dark Mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['3.8.4 (53)', '3.8.3 (52)', '3.8.2 (51)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.faltenreich.diaguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.frozendevs.cache.cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cache Cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean the cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.3 (26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Frozen-Developers/android-cache-cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Frozen-Developers/android-cache-cleaner/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['2.2.3 (26)', '2.2.0 (23)', '2.1.6 (22)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.frozendevs.cache.cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.frozendevs.periodictable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodic Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodic table of the elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1 (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science &amp; Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Frozen-Developers/android-periodic-table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Frozen-Developers/android-periodic-table/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">''NOTE:''' This app is no longer maintained, its repo was archived. Holo styled interactive periodic table with list of element properties and isotopes based on Wikipedia‚Äôs database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['1.1.1 (5)', '1.1.0 (3)', '1.0 (2)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.frozendevs.periodictable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.fsck.k9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-9 Mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-featured email client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.600 (26000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://k9mail.app/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/k9mail/k-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/k9mail/k-9/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://k9mail.app/k-9/changelog_5.6-MAINT_branch.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sponsors/cketti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail client supporting multiple accounts, POP3, IMAP and Push IMAP. Can do OpenPGP encryption if https://f-droid.org/packages/org.sufficientlysecure.keychain is installed. Settings and account configurations can be exported so that they can be imported easily if you are switching packages/signatures: a file manager will need to be already installed to achieve this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['5.734 (27034)', '5.733 (27033)', '5.600 (26000)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.fsck.k9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.gbeatty.arxiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arXiv eXplorer - Mobile App for arXiv.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browse, search, and download arXiv articles with arXiv eXplorer!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0.4 (39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science &amp; Education, Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.gbt.codes/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/GarrettBeatty/arXiv-eXplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/GarrettBeatty/arXiv-eXplorer/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find, save, and download arXiv articles quickly and easily with arXiv eXplorer! Features include: ‚Ä¢ Personalized Dashboard (Customize which arXiv categories you want to view) ‚Ä¢ Browse categories (Physics, Astronomy, Computer Science, etc) ‚Ä¢ Favorite arXiv articles ‚Ä¢ Search for arXiv articles ‚Ä¢ Download arXiv articles and save the PDF ‚Ä¢ Share papers easily! ‚Ä¢ Pagination ‚Ä¢ Latex Support ‚Ä¢ Dark Mode ‚Ä¢ Animations ‚Ä¢ Material Design ‚Ä¢ Free ‚Ä¢ Open Source The app is open source and contributions are welcome at https://github.com/GarrettBeatty/arXiv-eXplorer If you have any suggestions just create an issue at https://github.com/GarrettBeatty/arXiv-eXplorer/issu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['4.0.4 (39)', '3.5.7 (34)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.gbeatty.arxiv&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.geecko.QuickLyric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuickLyric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and display song lyrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 (131)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia, Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.quicklyric.be/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/QuickLyric/QuickLyric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/QuickLyric/QuickLyric/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuickLyric fetches your lyrics for you. It includes a search engine and is simple and easy to use. It can also detect what song is playing on your device. The NFC permission is used to share lyrics via Android Beam. '''Highlights:''' * The fastest lyrics finder * Synchronized lyrics - the ultimate karaoke experience right in your pocket! * Floating lyrics to enjoy your lyrics without interrupting what you‚Äôre doing * Display an (optional) notification to access your lyrics even quicker * Quickly download the lyrics for your whole library of songs (Google Play, Spotify or your own files) * Identify songs with your microphone: hold your phone to the music and the lyrics will appear! * A top-notch support team that will gladly answer all your qu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['2.1 (131)', '2.0.8c (129)', '2.0.8 (124)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.geecko.QuickLyric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.github.wdkapps.fillup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FillUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate fuel mileage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.2 (23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wdkapps.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/wdkapps/FillUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/wdkapps/FillUp/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you buy fuel, just enter the amount you purchased and your current odometer value; FillUp will calculate your mileage and maintain a log of your fill-ups. * Manages data for one or more vehicles. * Calculates and plots average gas mileage. * Calculates and plots monthly totals for gas purchased and distance driven. * Stores all data on the device ‚Äì doesn‚Äôt use your data plan. * Can import/export your data to CSV files on your sdcard. * Share the CSV files with other Apps for cloud backup! * Selectable units of measurement ‚Äì can calculate: * miles per gallon (MPG) * kilometers per liter (KM/L) * liters per 100 kilometers (L/100KM) * miles per imperial gallon (UK MPG) ‚Äì from miles and liters. * miles per imperial gallon (UK MPG) ‚Äì from kilometers and liters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['1.7.2 (23)', '1.7 (19)', '1.5 (13)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.github.wdkapps.fillup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.google.android.apps.authenticator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authenticator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two factor authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00 (5000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://support.google.com/accounts/bin/answer.py?hl=enWeb%20Site:answer=1066447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/google/google-authenticator-android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/google/google-authenticator-android/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/google/google-authenticator-android/blob/HEAD/ChangeLog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">''N.B''' According to a "disclaimer" on the website, the Current Version of the Android app is now proprietary and it isn't clear whether the source code repository will be getting any more updates. This can be used with non-Google apps that support it , but the most common use will be to login to Google or other accounts in a web browser. You will probably need https://f-droid.org/packages/com.google.zxing.client.android to be installed, though for some accounts it may be possible to type in keys. The Google Authenticator project includes implementations of one-time passcode generators for several mobile platforms, as well as a pluggable authentication module (PAM). One-time passcodes are generated using open standards developed by the Initiative for Open Authentication (OATH) (which is unrelated to OAuth). These implementations support the HMAC-Based One-time Password (HOTP) algorithm specified in RFC 4226 and the Time-based One-time Password (TOTP) algorithm specified in RFC 6238.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['2.21 (21)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.google.android.apps.authenticator2</t>
+  </si>
+  <si>
     <t xml:space="preserve">com.google.zxing.client.android</t>
   </si>
   <si>
@@ -96,12 +805,6 @@
     <t xml:space="preserve">4.7.8 (108)</t>
   </si>
   <si>
-    <t xml:space="preserve">Apache-2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multimedia</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://github.com/zxing/zxing/wiki/Frequently-Asked-Questions</t>
   </si>
   <si>
@@ -123,253 +826,157 @@
     <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.google.zxing.client.android</t>
   </si>
   <si>
-    <t xml:space="preserve">com.google.android.apps.authenticator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two factor authentication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00 (5000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://support.google.com/accounts/bin/answer.py?hl=enWeb%20Site:answer=1066447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/google/google-authenticator-android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/google/google-authenticator-android/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/google/google-authenticator-android/blob/HEAD/ChangeLog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">''N.B''' According to a "disclaimer" on the website, the Current Version of the Android app is now proprietary and it isn't clear whether the source code repository will be getting any more updates. This can be used with non-Google apps that support it , but the most common use will be to login to Google or other accounts in a web browser. You will probably need https://f-droid.org/packages/com.google.zxing.client.android to be installed, though for some accounts it may be possible to type in keys. The Google Authenticator project includes implementations of one-time passcode generators for several mobile platforms, as well as a pluggable authentication module (PAM). One-time passcodes are generated using open standards developed by the Initiative for Open Authentication (OATH) (which is unrelated to OAuth). These implementations support the HMAC-Based One-time Password (HOTP) algorithm specified in RFC 4226 and the Time-based One-time Password (TOTP) algorithm specified in RFC 6238.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['2.21 (21)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.google.android.apps.authenticator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.duckduckgo.mobile.android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DuckDuckGo Privacy Browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privacy, simplified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86.2 (58602)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://duckduckgo.com/app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/duckduckgo/Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/duckduckgo/Android/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/duckduckgo/Android/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At DuckDuckGo, we believe the Internet shouldn‚Äôt feel so creepy, and getting the privacy you deserve online should be as simple as closing the blinds. Our app provides the privacy essentials you need to seamlessly take control of your personal information as you search and browse the web, no matter where the Internet takes you: * Escape Advertising Tracker Networks ‚Äî Our Privacy Protection will block all the hidden third-party trackers we can find, exposing the major advertising networks tracking you over time, so that you can track who‚Äôs trying to track you. * Increase Encryption Protection ‚Äî We force sites to use an encrypted connection where available, protecting your data from prying eyes, like ISPs. * Search Privately ‚Äî You share your most personal information with your search engine, like your financial, medical, and political questions. What you search for is your own business, which is why DuckDuckGo search doesn‚Äôt track you. Ever. * Decode Privacy Policies ‚Äî We‚Äôve partnered with Terms of Service Didn‚Äôt Read to include their scores and labels of website terms of service and privacy policies, where available. As you search and browse, the DuckDuckGo Privacy Browser shows you a Privacy Grade rating when you visit a website (A-F). This rating lets you see how protected you are at a glance, dig into the details to see who we caught trying to track you, and learn how we enhanced the underlying site‚Äôs privacy measures. The Privacy Grade is scored automatically based on the prevalence of hidden tracker networks, encryption availability, and website privacy practices. Our app provides standard browsing functionality including tabs, bookmarks, and autocomplete. In addition to strong Privacy Protection as described above, we also packed in some extra privacy features into the browser itself: * Fire Button ‚Äî Clear all your tabs and data with one tap. * Application Lock ‚Äî Secure the app with Touch ID or Face ID. Too many people believe you simply can‚Äôt expect privacy on the Internet. We‚Äôre fighting to change that, and have made it our mission to set a new standard of trust online. Install DuckDuckGo and take back your privacy! Antifeatures: * NonFreeNet - Uses DuckDuckGo as the exclusive search engine, for which the source code is not available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['5.86.2 (58602)', '5.85.3 (58503)', '5.85.1 (58501)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.duckduckgo.mobile.android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at.tomtasche.reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenDocument Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12.6 (59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL-3.0-or-later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://opendocument.app/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/TomTasche/OpenDocument.droid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/TomTasche/OpenDocument.droid/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read odf documents. ODF is a document format that can be read by a wide variety of programs, including OpenOffice and LibreOffice. Anti-feature: Tracking. A recent version had code for sending some device info via HTTP POST to a appspot.com server. A proprietary ad library was removed before building. More recent versions have several more proprietary binaries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['2.0.7 (34)', '1.3.2 (24)', '1.3.0 (22)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=at.tomtasche.reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.fsck.k9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-9 Mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full-featured email client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.600 (26000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://k9mail.app/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/k9mail/k-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/k9mail/k-9/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://k9mail.app/k-9/changelog_5.6-MAINT_branch.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/sponsors/cketti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail client supporting multiple accounts, POP3, IMAP and Push IMAP. Can do OpenPGP encryption if https://f-droid.org/packages/org.sufficientlysecure.keychain is installed. Settings and account configurations can be exported so that they can be imported easily if you are switching packages/signatures: a file manager will need to be already installed to achieve this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['5.734 (27034)', '5.733 (27033)', '5.600 (26000)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.fsck.k9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.amaze.filemanager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage local files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.3 (92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL-3.0-only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forum.xda-developers.com/android/apps-games/app-amaze-file-managermaterial-theme-t2937314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/TeamAmaze/AmazeFileManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/TeamAmaze/AmazeFileManager/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light and smooth file manager following the Material Design guidelines. Features: * Basic features like cut, copy, delete, compress, extract etc. easily accessible * Work on multiple tabs at same time * Multiple themes with cool icons * Navigation drawer for quick navigation * App Manager to open, backup, or directly uninstall any app * Quickly access history, access bookmarks or search for any file * Root explorer for advanced u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['3.1.2 RC1 (54)', '3.1.1 (44)', '3.1.0 Beta 2 (43)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.amaze.filemanager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.better.alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Alarm Clock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improved alarm clock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07.01 (30701)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/yuriykulikov/AlarmClock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/yuriykulikov/AlarmClock/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/yuriykulikov/AlarmClock/commits/develop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paypal.me/YuriyKulikov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart alarm clock that includes many improvements over the stock alarm clock. It does not have any extra features such as dock mode or a world clock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['3.07.01 (30701)', '3.05.05 (30505)', '2.9.01 (2901)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.better.alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.byagowi.persiancalendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persian Calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View the Persian calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5.1 (651)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/persian-calendar/DroidPersianCalendar/wiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/persian-calendar/DroidPersianCalendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/persian-calendar/DroidPersianCalendar/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/persian-calendar/DroidPersianCalendar/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persian calendar is not supported in Android natively so this can be used instead. Includes widgets and dashclock provider, Compass/Qibla and Athan, and Afghanistan holidays, Dari, Kurdish and Pashto support.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['6.5.1 (651)', '6.5.0 (650)', '6.4.1 (641)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.byagowi.persiancalendar</t>
+    <t xml:space="preserve">com.greenaddress.greenbits_android_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blockstream Green Bitcoin wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6.0 (360)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://greenaddress.it/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/blockstream/green_android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/blockstream/green_android/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/blockstream/green_android/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blockstream Green is a Bitcoin Wallet for Android. Other Bitcoin wallets offer a choice between convenience, security, and control. With Blockstream Green, you get all three.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['3.6.0 (22000360)', '3.4.9 (349)', '3.4.7 (347)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.greenaddress.greenbits_android_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.gsnathan.pdfviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdf Viewer Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple PDF viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7 (28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/JavaCafe01/PdfViewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/JavaCafe01/PdfViewer/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paypal.me/gsnathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdf Viewer Plus is a smooth PDF viewer written in Java. It contains a simple user interface, multiple themes, and the ability to share a PDF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['3.7 (28)', '3.6 (27)', '3.5 (26)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.gsnathan.pdfviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.hobbyone.HashDroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Droid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify file integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 (24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/HobbyOneDroid/HashDroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/HobbyOneDroid/HashDroid/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Droid is a free utility to calculate a hash from a given text or from a file stored on the device. In this application, the available hash functions are : Adler-32, CRC-32, Haval-128, MD2, MD4, MD5, RIPEMD-128, RIPEMD-160, SHA-1, SHA-256, SHA-384, SHA-512, Tiger and Whirlpool. The calculated hash can be copied to the clipboard to be reused elsewhere. The first tab enables to calculate the hash of a given string. The second tab helps you to compute the hash of a file located on the internal or external memory of your device. The size of the file and the last date modified are also displayed. The last feature helps you to compare the calculated hash with another given hash but more generally, you can compare any hashes by just pasting them. A hash (also called checksum or digest) is a digital fingerprint, uniquely identifying a string or a file. Hash functions are often used in cryptography to generate strong passwords. They are also employed to check the integrity of files. Hash Droid is often used to check an Android ROM before flashing it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['4.3 (24)', '3.3 (20)', '3.1 (18)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.hobbyone.HashDroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iven.musicplayergo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Player GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very slim music player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2 (164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/enricocid/Music-Player-GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/enricocid/Music-Player-GO/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/enricocid/Music-Player-GO/releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://paypal.me/enricocid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Music Player GO'' is a very slim music player (small app size). It offers a colorful and simple "Unified UI" (no need to navigate between activities). The app also features an Equalizer, Themes (Light, dark, night) andmore. It even deals with Pause/resume when the headsets are (dis)connected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['4.4.2 (164)', '4.4.1 (163)', '4.4.0 (162)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.iven.musicplayergo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.redblaster.hsl.main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helsinki Timetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show timetables for public transport in Helsinki city and region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 (37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/w32blaster/helsinki-timetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/w32blaster/helsinki-timetables/issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Helsinki Timetables'' provides Timetables of public transport for Helsinki city and regions, Finland. The app supports the following languages: Languages: eng, fin, rus, fra, esp, est, swe, vie '''Note:''' this app requires about 75MB free space on SD-card (sometimes more, when database keeps all timetables from summer and winter periods).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['1.6 (37)', '1.5 (36)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.redblaster.hsl.main</t>
   </si>
   <si>
     <t xml:space="preserve">com.sagar.screenshift2</t>
@@ -402,610 +1009,49 @@
     <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.sagar.screenshift2</t>
   </si>
   <si>
-    <t xml:space="preserve">ch.blinkenlights.android.vanilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanilla Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listen to and manage songs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.0 (11000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vanilla-music.github.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/vanilla-music/vanilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/vanilla-music/vanilla/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.rawgit.com/vanilla-music/vanilla/HEAD/app/src/main/assets/about.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music player with a simple interface similar to the stock music player. Supports browsing by folder, queueing, shake-to-skip and more. Supports the same audio formats as the stock music player since the system media APIs are used. This is a fork of https://f-droid.org/packages/org.kreed.vanilla which is no longer being developed by its author. We keep that in the repo as it supports Android versions below 4.0.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['1.1.0 (11000)', '1.0.92 (10923)', '1.0.91 (10910)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.kanedias.vanilla.coverfetch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chat.rocket.android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocket.Chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Communication Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12.1 (2143)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rocket.chat/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/RocketChat/Rocket.Chat.ReactNative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/RocketChat/Rocket.Chat.ReactNative/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/RocketChat/Rocket.Chat.ReactNative/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/RocketChat/Rocket.Chat#donate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">''Note:''' This FOSS build variant currently lacks any push notification support. Rocket.Chat is a free and open source team chat collaboration platform that allows users to communicate securely in real-time across devices on web, desktop or mobile and to customize their interface with a range of plugins, themes and integrations with other key software. By opting for Rocket.Chat, users also benefit from free audio and video conferencing, guest access, screen and file sharing, LiveChat, LDAP Group Sync, two-factor authentication (2FA), E2E encryption, SSO, dozens of OAuth providers and unlimited users, guests, channels, messages, searches and files. Users can set up Rocket.Chat on cloud or by hosting their own servers on-premises. With more than 700 developer-contributors and over 17k stars on Github, Rocket.Chat has the largest and most active community of chat developers in the open source communication sector. When you choose Rocket.Chat, you join a passionate community who help to grow the platform with us! '''KEY FEATURES:''' * Free Open Source Software * Hassle free MIT license * BYOS (bring your own server) * Multiple Rooms * Direct Messages * Private Groups * Public Channels * Desktop and Mobile Notifications * Edit and Delete Sent Messages * Mentions * Avatars * Markdown * Emojis * Choose between 3 themes: Light, Dark, Black * Sort conversations alphabetically or group by activity, unread or favourites * Transcripts / History * File Upload / Sharing * I18n - Internationalization with Lingohub * Hubot Friendly - Hubot Integration Project * Media Embeds * Link Previews * LDAP Authentication * REST-full APIs * Remote Locations Video Monitoring * Native Cross-Platform Desktop Application '''GET IT NOW:''' * Learn more and install: [https://rocket.chat] * ONE-CLICK-DEPLOYMENT ‚Äì See instructions on our GitHub repository: [https://github.com/RocketChat]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['4.12.1 (2143)', '4.11.0 (2137)', '3.5.1 (2077)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=chat.rocket.android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co.epitre.aelf_lectures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AELF - Bible and day's reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A simple and discrete daily reading application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.2 (69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://epitre.co/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/HackMyChurch/aelf-dailyreadings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/HackMyChurch/aelf-dailyreadings/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">''The Word of God, nothing but the Word of God''' * Find the entire Mass and liturgy of the hours from the liturgical translation. Mass, readings, lauds, third, sexte, none, vespers, complies. * Meditate on speech, without distractions. Sober and unique full screen display, with no risk of going into standby. * Do not look, there is no flourish, no distraction, just the Word. '''Accessible, for everyone''' * Use your phone, it is compatible. Without sacrificing the look. (Android 2.2+ to Android 5.1) * Adjust the text size according to your preferences, depending on your screen. * Let us guide you with "Talkback". The application is compatible. * Read without suffering. The texts are formatted. '''Anytime, anywhere''' * Automatically synchronize texts to meditate on them even from a cave... or the countryside. * Navigate through time, the date is adjustable at least one month in advance. '''In a land of trust''' * This application uses the Internet for only one thing: to load the texts of the Word. No data other than Android automatic error reports, whether personal or statistical, is transmitted by the application. * Application proposed on a voluntary basis, without any publicity with the support of the ''Association √©piscopale liturgique pour les pays francophones'' (http://www.aelf.org) * Texts and logo reproduced with the kind permission of the AELF.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['2.7.2 (69)', '2.7.0 (67)', '2.6.4 (66)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=co.epitre.aelf_lectures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.adam.aslfms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Scrobbler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last.fm/Libre.fm Scrobbler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7.0 (61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://simple-last-fm-scrobbler.github.io/sls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/simple-last-fm-scrobbler/sls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/simple-last-fm-scrobbler/sls/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/simple-last-fm-scrobbler/sls/blob/HEAD/app/src/main/assets/changelog.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrobbling means submitting listening information to Last.fm and/or Libre.fm; you can then get music recommendations and view your listening history and statistics. Most media players will work. Older android versions pre-Lollipop, the media player that you use must be able to work with the API e.g. https://f-droid.org/packages/org.kreed.vanilla or https://f-droid.org/packages/jp.co.kayo.android.localplayer. Apps can also hook into the Now-Playing broadcast: for example, https://f-droid.org/packages/com.jlyr can use it to grab lyrics. More info about scrobbling can be found on Last.fm's FAQ[0]. [0] http://www.last.fm/help/faq?category=Scrobbling#201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['1.7.0 (61)', '1.6.7 (58)', '1.6.4 (55)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.adam.aslfms&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.apps.adrcotfas.goodtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goodtime - Minimalist Pomodoro Timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Productivity timer designed to keep you on track and free of distractions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.6 (130)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/goodtime-productivity/Goodtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/goodtime-productivity/Goodtime/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/goodtime-productivity/Goodtime/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paypal.com/cgi-bin/webscr?cmd=_s-xclick&amp;hosted_button_id=CH2SJKS6GXG6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A minimalist but powerful productivity timer designed to keep you focused and free of distractions. Alternate between focused work sessions and short breaks handled by the app. Get rid of procrastination and improve your time management! ‚è≥ split your work into sessions of focus and then reward yourself with a break ‚òï after more sessions of work, take a longer break '''Features:''' * Lightweight and battery friendly * Configurable timer * Pause, skip or add 60 seconds * Detailed statistics * Disable sound and Wi-Fi connection during the work sessions * AMOLED-friendly user interface * Colored labels * Timer styles * Manually add sessions * Edit completed sessions * Backup export and import * Export statistics to CSV * Screensaver mode * Themes * Separate notification sound for work and break * Insistent notifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['2.2.6 (130)', '2.2.5 (129)', '2.2.4 (128)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.apps.adrcotfas.goodtime&amp;utm_source=global_co&amp;utm_medium=prtnr&amp;utm_content=Mar2515&amp;utm_campaign=PartBadge&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.github.wdkapps.fillup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FillUp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate fuel mileage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7.2 (23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science &amp; Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wdkapps.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/wdkapps/FillUp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/wdkapps/FillUp/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you buy fuel, just enter the amount you purchased and your current odometer value; FillUp will calculate your mileage and maintain a log of your fill-ups. * Manages data for one or more vehicles. * Calculates and plots average gas mileage. * Calculates and plots monthly totals for gas purchased and distance driven. * Stores all data on the device ‚Äì doesn‚Äôt use your data plan. * Can import/export your data to CSV files on your sdcard. * Share the CSV files with other Apps for cloud backup! * Selectable units of measurement ‚Äì can calculate: * miles per gallon (MPG) * kilometers per liter (KM/L) * liters per 100 kilometers (L/100KM) * miles per imperial gallon (UK MPG) ‚Äì from miles and liters. * miles per imperial gallon (UK MPG) ‚Äì from kilometers and liters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['1.7.2 (23)', '1.7 (19)', '1.5 (13)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.github.wdkapps.fillup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.greenaddress.greenbits_android_wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blockstream Green Bitcoin wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.0 (360)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://greenaddress.it/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/blockstream/green_android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/blockstream/green_android/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/blockstream/green_android/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blockstream Green is a Bitcoin Wallet for Android. Other Bitcoin wallets offer a choice between convenience, security, and control. With Blockstream Green, you get all three.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['3.6.0 (22000360)', '3.4.9 (349)', '3.4.7 (347)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.greenaddress.greenbits_android_wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.hobbyone.HashDroid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hash Droid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify file integrity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 (24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/HobbyOneDroid/HashDroid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/HobbyOneDroid/HashDroid/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hash Droid is a free utility to calculate a hash from a given text or from a file stored on the device. In this application, the available hash functions are : Adler-32, CRC-32, Haval-128, MD2, MD4, MD5, RIPEMD-128, RIPEMD-160, SHA-1, SHA-256, SHA-384, SHA-512, Tiger and Whirlpool. The calculated hash can be copied to the clipboard to be reused elsewhere. The first tab enables to calculate the hash of a given string. The second tab helps you to compute the hash of a file located on the internal or external memory of your device. The size of the file and the last date modified are also displayed. The last feature helps you to compare the calculated hash with another given hash but more generally, you can compare any hashes by just pasting them. A hash (also called checksum or digest) is a digital fingerprint, uniquely identifying a string or a file. Hash functions are often used in cryptography to generate strong passwords. They are also employed to check the integrity of files. Hash Droid is often used to check an Android ROM before flashing it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['4.3 (24)', '3.3 (20)', '3.1 (18)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.hobbyone.HashDroid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iven.musicplayergo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music Player GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very slim music player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.2 (164)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/enricocid/Music-Player-GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/enricocid/Music-Player-GO/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/enricocid/Music-Player-GO/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://paypal.me/enricocid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Music Player GO'' is a very slim music player (small app size). It offers a colorful and simple "Unified UI" (no need to navigate between activities). The app also features an Equalizer, Themes (Light, dark, night) andmore. It even deals with Pause/resume when the headsets are (dis)connected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['4.4.2 (164)', '4.4.1 (163)', '4.4.0 (162)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.iven.musicplayergo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.redblaster.hsl.main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helsinki Timetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show timetables for public transport in Helsinki city and region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6 (37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/w32blaster/helsinki-timetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/w32blaster/helsinki-timetables/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Helsinki Timetables'' provides Timetables of public transport for Helsinki city and regions, Finland. The app supports the following languages: Languages: eng, fin, rus, fra, esp, est, swe, vie '''Note:''' this app requires about 75MB free space on SD-card (sometimes more, when database keeps all timetables from summer and winter periods).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['1.6 (37)', '1.5 (36)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.redblaster.hsl.main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.faltenreich.diaguard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diaguard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes diary and food database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8.4 (53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports &amp; Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://faltenreich.wordpress.com/2019/03/30/diaguard/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Faltenreich/Diaguard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Faltenreich/Diaguard/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Faltenreich/Diaguard/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paypal.com/cgi-bin/webscr?cmd=_s-xclick&amp;hosted_button_id=AM6HG633T4BWY&amp;source=url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aguard is a free of cost, ad-free and open source app for people with diabetes mellitus. It replaces the handwritten diary and helps the user to quickly and easily record, evaluate and export his blood sugar and other important data as PDF or CSV. Thanks to the clearly arranged interface, the user always has an overview of his diabetes. The app also provides information on several thousand foods including carbohydrates and other nutrients. Features ‚Ä¢ Quickly and easily track your blood glucose, insulin, carbohydrates, A1c, activity, weight, pulse, blood pressure and oxygen saturation ‚Ä¢ Customizable units ‚Ä¢ Visualize your blood glucose level in a graph ‚Ä¢ Detailed logs of your data ‚Ä¢ Food database with thousands of entries ‚Ä¢ PDF and CSV export ‚Ä¢ Backup ‚Ä¢ Reminder functionality ‚Ä¢ Estimated HbA1c ‚Ä¢ Statistics ‚Ä¢ Dark Mod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['3.8.4 (53)', '3.8.3 (52)', '3.8.2 (51)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.faltenreich.diaguard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.frozendevs.periodictable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodic Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodic table of the elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1 (5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Frozen-Developers/android-periodic-table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Frozen-Developers/android-periodic-table/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">''NOTE:''' This app is no longer maintained, its repo was archived. Holo styled interactive periodic table with list of element properties and isotopes based on Wikipedia‚Äôs database.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['1.1.1 (5)', '1.1.0 (3)', '1.0 (2)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.frozendevs.periodictable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.gbeatty.arxiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arXiv eXplorer - Mobile App for arXiv.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browse, search, and download arXiv articles with arXiv eXplorer!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0.4 (39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science &amp; Education, Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://arxiv.gbt.codes/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/GarrettBeatty/arXiv-eXplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/GarrettBeatty/arXiv-eXplorer/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find, save, and download arXiv articles quickly and easily with arXiv eXplorer! Features include: ‚Ä¢ Personalized Dashboard (Customize which arXiv categories you want to view) ‚Ä¢ Browse categories (Physics, Astronomy, Computer Science, etc) ‚Ä¢ Favorite arXiv articles ‚Ä¢ Search for arXiv articles ‚Ä¢ Download arXiv articles and save the PDF ‚Ä¢ Share papers easily! ‚Ä¢ Pagination ‚Ä¢ Latex Support ‚Ä¢ Dark Mode ‚Ä¢ Animations ‚Ä¢ Material Design ‚Ä¢ Free ‚Ä¢ Open Source The app is open source and contributions are welcome at https://github.com/GarrettBeatty/arXiv-eXplorer If you have any suggestions just create an issue at https://github.com/GarrettBeatty/arXiv-eXplorer/issu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['4.0.4 (39)', '3.5.7 (34)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.gbeatty.arxiv&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.gsnathan.pdfviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdf Viewer Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A simple PDF viewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 (28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/JavaCafe01/PdfViewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/JavaCafe01/PdfViewer/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paypal.me/gsnathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdf Viewer Plus is a smooth PDF viewer written in Java. It contains a simple user interface, multiple themes, and the ability to share a PDF.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['3.7 (28)', '3.6 (27)', '3.5 (26)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.gsnathan.pdfviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.ames.books</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BookList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unofficial Google Books viewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7 (7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science &amp; Education, Reading, Multimedia, Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/andviane/google-books-android-viewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/andviane/google-books-android-viewer/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the demo/wrapping app to demonstrate the capabilities of the Uncover library. This library builds a bridge between "infinitely scrolling view" that requires fast synchronous data model and web resource or database that uses slow asynchronous and strongly prefers more than a single item per request. The library performs many internal optimizations on how the data are fetched. Unlike many alternative approaches (mostly centered around the scroll listener) it features clean classic MVC design. The mentioned library is the open source project under Apache 2.0 license. The wrapping app (same repository) is under GPLv3. The demo app is fully usable by the end non-programming user. It allows to view the large Google Books directory, displaying titles and book covers. If it is possible to purchase the book from some vendor, the "book purchase link" appears in the book details view. Tapping on it opens the web browser of your device (no longer this app) and you may read more details or even to make a purchase there. The app communicates with Google server with the help of com.google.apis:google-api-services-books library that if fetched from Maven Central. Maven Central specifies the license of this library as Apache 2.0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['1.7 (7)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.ames.books</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.blogspot.e_kanivets.moneytracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money Tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Track your money easily and fully free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.3 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/xorum-io/open_money_tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/xorum-io/open_money_tracker/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/xorum-io/open_money_tracker/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you want to save some money or just to know where is your money come from and to? Then this app is for you. You can manage you incomes and expenses in two clicks, then take a report in two clicks more. Following features are available in current version: *Manage expenses/incomes. *Create reports for period. *Manage accounts with different currencies. *Transfer money between accounts. *Manage exchange rates between currencies. *Quick summaries. *Charts. *CSV export/import. *Dropbox backups.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['2.1.3 (35)', '2.1.2 (34)', '2.1.1 (33)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.blogspot.e_kanivets.moneytracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.frozendevs.cache.cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cache Cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean the cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.3 (26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Frozen-Developers/android-cache-cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Frozen-Developers/android-cache-cleaner/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['2.2.3 (26)', '2.2.0 (23)', '2.1.6 (22)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.frozendevs.cache.cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.danielkim.soundrecorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sound Recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Record audio files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.0 (130)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sites.google.com/site/danielyehunkim/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/dkim0419/SoundRecorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/dkim0419/SoundRecorder/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/dkim0419/SoundRecorder/releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple sound recorder implementing material design. Use Sound Recorder to record lectures, singing, business meetings, notes and more! '''Features:''' * Material Design * Easy to Use * No Time Limits * MP4 Format * AAC Encoder * Manage files easily * Open source * NO ADVERTISEMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['1.3.0 (130)', '1.2.5 (8)', '1.2.2 (5)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.danielkim.soundrecorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.geecko.QuickLyric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuickLyric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetch and display song lyrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 (131)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multimedia, Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.quicklyric.be/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/QuickLyric/QuickLyric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/QuickLyric/QuickLyric/issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuickLyric fetches your lyrics for you. It includes a search engine and is simple and easy to use. It can also detect what song is playing on your device. The NFC permission is used to share lyrics via Android Beam. '''Highlights:''' * The fastest lyrics finder * Synchronized lyrics - the ultimate karaoke experience right in your pocket! * Floating lyrics to enjoy your lyrics without interrupting what you‚Äôre doing * Display an (optional) notification to access your lyrics even quicker * Quickly download the lyrics for your whole library of songs (Google Play, Spotify or your own files) * Identify songs with your microphone: hold your phone to the music and the lyrics will appear! * A top-notch support team that will gladly answer all your qu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['2.1 (131)', '2.0.8c (129)', '2.0.8 (124)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.geecko.QuickLyric</t>
+    <t xml:space="preserve">org.xbmc.kodi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kodi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/xbmc/xbmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.torproject.torbrowser_alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbot: Tor for Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/guardianproject/Orbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de.danoeh.antennapod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antennapod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/antennapod/AntennaPod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ws.xsoh.etar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etar - OpenSource Calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Etar-Group/Etar-Calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it.feio.android.omninotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omni Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/federicoiosue/Omni-Notes</t>
   </si>
   <si>
     <t xml:space="preserve">ac.robinson.mediaphone</t>
@@ -1894,9 +1940,6 @@
   </si>
   <si>
     <t xml:space="preserve">['2.3.1 (11)', '2.2 (8)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ws.xsoh.etar</t>
   </si>
   <si>
     <t xml:space="preserve">['1.0.25 (27)', '1.0.24 (26)', '1.0.23 (25)']</t>
@@ -1961,7 +2004,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2006,6 +2049,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2062,7 +2111,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2116,6 +2165,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2204,17 +2261,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.66"/>
@@ -2291,7 +2348,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>779</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
@@ -2303,10 +2360,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41185</v>
+        <v>40548</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>43363</v>
+        <v>41345</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>22</v>
@@ -2326,20 +2383,17 @@
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="R2" s="2" t="n">
-        <v>100000000</v>
+        <v>5000000</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>4</v>
@@ -2347,28 +2401,28 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
-        <v>769</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="n">
+        <v>41185</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>44300</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>41144</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>41144</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>36</v>
@@ -2395,15 +2449,15 @@
         <v>43</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>50000000</v>
+        <v>500000</v>
       </c>
       <c r="S3" s="6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>515</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>44</v>
@@ -2415,104 +2469,107 @@
         <v>46</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41623</v>
+        <v>43357</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>44341</v>
+        <v>44162</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>184</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>43610</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>43964</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="I5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>40548</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>41345</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="2" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>4</v>
+      <c r="R5" s="10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S5" s="10" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>630</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>68</v>
@@ -2524,33 +2581,30 @@
         <v>70</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>41529</v>
+        <v>41172</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>44321</v>
+        <v>43736</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="5" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -2563,10 +2617,10 @@
         <v>79</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,28 +2646,28 @@
         <v>83</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>1000000</v>
@@ -2623,424 +2677,422 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>355</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="6" t="n">
+        <v>246</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="8" t="n">
+        <v>43248</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>43248</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>41445</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>44302</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="O8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="P8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>4.3</v>
+      <c r="R8" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="4" t="n">
+        <v>43525</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>44345</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>41144</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>44315</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="L9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>41445</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>44302</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="R9" s="2" t="n">
+      <c r="J10" s="3"/>
+      <c r="K10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="2" t="n">
         <v>1000000</v>
       </c>
-      <c r="S9" s="2" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>906</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>42752</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>42752</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="9" t="s">
+      <c r="S10" s="2" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="S10" s="6" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>145</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="4" t="n">
+        <v>44028</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>44121</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="8" t="n">
-        <v>41185</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>44300</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="O11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="Q11" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" s="6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="S11" s="6" t="n">
-        <v>4.1</v>
+      <c r="R11" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>171</v>
+        <v>399</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="4" t="n">
+        <v>41144</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>44315</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>43357</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>44162</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="P12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="R12" s="2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>459</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="R12" s="2" t="n">
-        <v>500000</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
-        <v>184</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="E13" s="4" t="n">
+        <v>42046</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>42880</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="K13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <v>43610</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <v>43964</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="L13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="M13" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="O13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="P13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="Q13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="R13" s="10" t="n">
-        <v>500000</v>
-      </c>
-      <c r="S13" s="10" t="n">
-        <v>4.6</v>
+      <c r="R13" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>212</v>
+        <v>515</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="4" t="n">
+        <v>41623</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>44341</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>41172</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>43736</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="O14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="P14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="R14" s="2" t="n">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>318</v>
+        <v>594</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>44348</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>43525</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>44345</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="K15" s="5" t="s">
         <v>174</v>
       </c>
@@ -3063,15 +3115,15 @@
         <v>180</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>500000</v>
+        <v>10000</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>741</v>
+        <v>627</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>181</v>
@@ -3083,458 +3135,458 @@
         <v>183</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>41617</v>
+        <v>41833</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>42073</v>
+        <v>42829</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>184</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="P16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="Q16" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="R16" s="2" t="n">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>794</v>
+        <v>628</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>41835</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>41958</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>42033</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>44360</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="P17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="Q17" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="R17" s="2" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>824</v>
+        <v>630</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>41529</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>44321</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="M18" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <v>41464</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>43990</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="N18" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="5" t="s">
+      <c r="O18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="P18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="R18" s="2" t="n">
-        <v>100000</v>
+        <v>5000000</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>861</v>
+        <v>641</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="4" t="n">
+        <v>43466</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>43494</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v>43253</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>44261</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="3"/>
       <c r="K19" s="5" t="s">
         <v>217</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="O19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="P19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="Q19" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="R19" s="2" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>873</v>
+        <v>644</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="4" t="n">
+        <v>42062</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>42833</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v>43525</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>43556</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="O20" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="R20" s="2" t="n">
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>594</v>
+        <v>741</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="4" t="n">
+        <v>41617</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>42073</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>43962</v>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>44348</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="O21" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="P21" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="Q21" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="R21" s="2" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="6" t="n">
+        <v>769</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>41144</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>41144</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="J22" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="K22" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>41835</v>
-      </c>
-      <c r="F22" s="4" t="n">
-        <v>41958</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="L22" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="M22" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="O22" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="Q22" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="R22" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="S22" s="2" t="n">
-        <v>4.5</v>
+      <c r="R22" s="6" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>641</v>
+        <v>779</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="4" t="n">
+        <v>41185</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>43363</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v>43466</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>43494</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="O23" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="Q23" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="R23" s="2" t="n">
-        <v>10000</v>
+        <v>100000000</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="4" t="n">
+        <v>42033</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>44360</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E24" s="4" t="n">
-        <v>43478</v>
-      </c>
-      <c r="F24" s="4" t="n">
-        <v>44315</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="3"/>
       <c r="K24" s="5" t="s">
         <v>271</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>273</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -3547,65 +3599,69 @@
         <v>276</v>
       </c>
       <c r="R24" s="2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>43478</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>44315</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="R25" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S25" s="2" t="n">
         <v>4.6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>246</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>43248</v>
-      </c>
-      <c r="F25" s="8" t="n">
-        <v>43248</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="R25" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S25" s="6" t="n">
-        <v>1.7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>364</v>
+        <v>824</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>287</v>
@@ -3617,19 +3673,19 @@
         <v>289</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>44028</v>
+        <v>41464</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>44121</v>
+        <v>43990</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>290</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="5" t="s">
@@ -3638,309 +3694,369 @@
       <c r="L26" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="O26" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q26" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="R26" s="2" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>627</v>
+        <v>861</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="4" t="n">
+        <v>43253</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>44261</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <v>41833</v>
-      </c>
-      <c r="F27" s="4" t="n">
-        <v>42829</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>302</v>
       </c>
+      <c r="N27" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="P27" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>459</v>
+        <v>873</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>42046</v>
+        <v>43525</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>42880</v>
+        <v>43556</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>906</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>42752</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>42752</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="S28" s="2" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>644</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>42062</v>
-      </c>
-      <c r="F29" s="4" t="n">
-        <v>42833</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="R29" s="6" t="n">
         <v>1000000</v>
       </c>
-      <c r="S29" s="2" t="n">
-        <v>4.3</v>
+      <c r="S29" s="6" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="https://github.com/zxing/zxing/wiki/Frequently-Asked-Questions"/>
-    <hyperlink ref="K2" r:id="rId2" display="https://github.com/zxing/zxing"/>
-    <hyperlink ref="L2" r:id="rId3" display="https://github.com/zxing/zxing/issues"/>
-    <hyperlink ref="M2" r:id="rId4" display="https://github.com/zxing/zxing/releases"/>
-    <hyperlink ref="Q2" r:id="rId5" display="https://play.google.com/store/apps/details?id=com.google.zxing.client.android"/>
-    <hyperlink ref="J3" r:id="rId6" display="https://support.google.com/accounts/bin/answer.py?hl=enWeb%20Site:answer=1066447"/>
-    <hyperlink ref="K3" r:id="rId7" display="https://github.com/google/google-authenticator-android"/>
-    <hyperlink ref="L3" r:id="rId8" display="https://github.com/google/google-authenticator-android/issues"/>
-    <hyperlink ref="M3" r:id="rId9" display="https://github.com/google/google-authenticator-android/blob/HEAD/ChangeLog"/>
-    <hyperlink ref="Q3" r:id="rId10" display="https://play.google.com/store/apps/details?id=com.google.android.apps.authenticator2"/>
-    <hyperlink ref="J4" r:id="rId11" display="https://duckduckgo.com/app"/>
-    <hyperlink ref="K4" r:id="rId12" display="https://github.com/duckduckgo/Android"/>
-    <hyperlink ref="L4" r:id="rId13" display="https://github.com/duckduckgo/Android/issues"/>
-    <hyperlink ref="M4" r:id="rId14" display="https://github.com/duckduckgo/Android/releases"/>
-    <hyperlink ref="Q4" r:id="rId15" display="https://play.google.com/store/apps/details?id=com.duckduckgo.mobile.android"/>
-    <hyperlink ref="J5" r:id="rId16" display="https://opendocument.app/"/>
-    <hyperlink ref="K5" r:id="rId17" display="https://github.com/TomTasche/OpenDocument.droid"/>
-    <hyperlink ref="L5" r:id="rId18" display="https://github.com/TomTasche/OpenDocument.droid/issues"/>
-    <hyperlink ref="Q5" r:id="rId19" display="https://play.google.com/store/apps/details?id=at.tomtasche.reader"/>
-    <hyperlink ref="J6" r:id="rId20" display="https://k9mail.app/"/>
-    <hyperlink ref="K6" r:id="rId21" display="https://github.com/k9mail/k-9"/>
-    <hyperlink ref="L6" r:id="rId22" display="https://github.com/k9mail/k-9/issues"/>
-    <hyperlink ref="M6" r:id="rId23" display="https://k9mail.app/k-9/changelog_5.6-MAINT_branch.xml"/>
-    <hyperlink ref="N6" r:id="rId24" display="https://github.com/sponsors/cketti"/>
-    <hyperlink ref="Q6" r:id="rId25" display="https://play.google.com/store/apps/details?id=com.fsck.k9"/>
-    <hyperlink ref="J7" r:id="rId26" display="https://forum.xda-developers.com/android/apps-games/app-amaze-file-managermaterial-theme-t2937314"/>
-    <hyperlink ref="K7" r:id="rId27" display="https://github.com/TeamAmaze/AmazeFileManager"/>
-    <hyperlink ref="L7" r:id="rId28" display="https://github.com/TeamAmaze/AmazeFileManager/issues"/>
-    <hyperlink ref="Q7" r:id="rId29" display="https://play.google.com/store/apps/details?id=com.amaze.filemanager"/>
-    <hyperlink ref="K8" r:id="rId30" display="https://github.com/yuriykulikov/AlarmClock"/>
-    <hyperlink ref="L8" r:id="rId31" display="https://github.com/yuriykulikov/AlarmClock/issues"/>
-    <hyperlink ref="M8" r:id="rId32" display="https://github.com/yuriykulikov/AlarmClock/commits/develop"/>
-    <hyperlink ref="N8" r:id="rId33" display="paypal.me/YuriyKulikov"/>
-    <hyperlink ref="Q8" r:id="rId34" display="https://play.google.com/store/apps/details?id=com.better.alarm"/>
-    <hyperlink ref="J9" r:id="rId35" display="https://github.com/persian-calendar/DroidPersianCalendar/wiki"/>
-    <hyperlink ref="K9" r:id="rId36" display="https://github.com/persian-calendar/DroidPersianCalendar"/>
-    <hyperlink ref="L9" r:id="rId37" display="https://github.com/persian-calendar/DroidPersianCalendar/issues"/>
-    <hyperlink ref="M9" r:id="rId38" display="https://github.com/persian-calendar/DroidPersianCalendar/releases"/>
-    <hyperlink ref="Q9" r:id="rId39" display="https://play.google.com/store/apps/details?id=com.byagowi.persiancalendar"/>
-    <hyperlink ref="J10" r:id="rId40" display="http://forum.xda-developers.com/android/apps-games/app-screen-shift-change-screen-t3138718"/>
-    <hyperlink ref="K10" r:id="rId41" display="https://github.com/aravindsagar/ScreenShift"/>
-    <hyperlink ref="L10" r:id="rId42" display="https://github.com/aravindsagar/ScreenShift/issues"/>
-    <hyperlink ref="Q10" r:id="rId43" display="https://play.google.com/store/apps/details?id=com.sagar.screenshift2"/>
-    <hyperlink ref="J11" r:id="rId44" display="https://vanilla-music.github.io/"/>
-    <hyperlink ref="K11" r:id="rId45" display="https://github.com/vanilla-music/vanilla"/>
-    <hyperlink ref="L11" r:id="rId46" display="https://github.com/vanilla-music/vanilla/issues"/>
-    <hyperlink ref="M11" r:id="rId47" display="https://cdn.rawgit.com/vanilla-music/vanilla/HEAD/app/src/main/assets/about.html"/>
-    <hyperlink ref="Q11" r:id="rId48" display="https://play.google.com/store/apps/details?id=com.kanedias.vanilla.coverfetch"/>
-    <hyperlink ref="J12" r:id="rId49" display="https://rocket.chat/"/>
-    <hyperlink ref="K12" r:id="rId50" display="https://github.com/RocketChat/Rocket.Chat.ReactNative"/>
-    <hyperlink ref="L12" r:id="rId51" display="https://github.com/RocketChat/Rocket.Chat.ReactNative/issues"/>
-    <hyperlink ref="M12" r:id="rId52" display="https://github.com/RocketChat/Rocket.Chat.ReactNative/releases"/>
-    <hyperlink ref="N12" r:id="rId53" location="donate" display="https://github.com/RocketChat/Rocket.Chat#donate"/>
-    <hyperlink ref="Q12" r:id="rId54" display="https://play.google.com/store/apps/details?id=chat.rocket.android"/>
-    <hyperlink ref="J13" r:id="rId55" display="https://epitre.co/"/>
-    <hyperlink ref="K13" r:id="rId56" display="https://github.com/HackMyChurch/aelf-dailyreadings"/>
-    <hyperlink ref="L13" r:id="rId57" display="https://github.com/HackMyChurch/aelf-dailyreadings/issues"/>
-    <hyperlink ref="Q13" r:id="rId58" display="https://play.google.com/store/apps/details?id=co.epitre.aelf_lectures"/>
-    <hyperlink ref="J14" r:id="rId59" display="https://simple-last-fm-scrobbler.github.io/sls"/>
-    <hyperlink ref="K14" r:id="rId60" display="https://github.com/simple-last-fm-scrobbler/sls"/>
-    <hyperlink ref="L14" r:id="rId61" display="https://github.com/simple-last-fm-scrobbler/sls/issues"/>
-    <hyperlink ref="M14" r:id="rId62" display="https://github.com/simple-last-fm-scrobbler/sls/blob/HEAD/app/src/main/assets/changelog.txt"/>
-    <hyperlink ref="Q14" r:id="rId63" display="https://play.google.com/store/apps/details?id=com.adam.aslfms&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1"/>
-    <hyperlink ref="K15" r:id="rId64" display="https://github.com/goodtime-productivity/Goodtime"/>
-    <hyperlink ref="L15" r:id="rId65" display="https://github.com/goodtime-productivity/Goodtime/issues"/>
-    <hyperlink ref="M15" r:id="rId66" display="https://github.com/goodtime-productivity/Goodtime/releases"/>
-    <hyperlink ref="N15" r:id="rId67" display="https://www.paypal.com/cgi-bin/webscr?cmd=_s-xclick&amp;hosted_button_id=CH2SJKS6GXG6L"/>
-    <hyperlink ref="Q15" r:id="rId68" display="https://play.google.com/store/apps/details?id=com.apps.adrcotfas.goodtime&amp;utm_source=global_co&amp;utm_medium=prtnr&amp;utm_content=Mar2515&amp;utm_campaign=PartBadge&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1"/>
-    <hyperlink ref="J16" r:id="rId69" display="https://wdkapps.github.io"/>
-    <hyperlink ref="K16" r:id="rId70" display="https://github.com/wdkapps/FillUp"/>
-    <hyperlink ref="L16" r:id="rId71" display="https://github.com/wdkapps/FillUp/issues"/>
-    <hyperlink ref="Q16" r:id="rId72" display="https://play.google.com/store/apps/details?id=com.github.wdkapps.fillup"/>
-    <hyperlink ref="J17" r:id="rId73" display="https://greenaddress.it/"/>
-    <hyperlink ref="K17" r:id="rId74" display="https://github.com/blockstream/green_android"/>
-    <hyperlink ref="L17" r:id="rId75" display="https://github.com/blockstream/green_android/issues"/>
-    <hyperlink ref="M17" r:id="rId76" display="https://github.com/blockstream/green_android/releases"/>
-    <hyperlink ref="Q17" r:id="rId77" display="https://play.google.com/store/apps/details?id=com.greenaddress.greenbits_android_wallet"/>
-    <hyperlink ref="K18" r:id="rId78" display="https://github.com/HobbyOneDroid/HashDroid"/>
-    <hyperlink ref="L18" r:id="rId79" display="https://github.com/HobbyOneDroid/HashDroid/issues"/>
-    <hyperlink ref="Q18" r:id="rId80" display="https://play.google.com/store/apps/details?id=com.hobbyone.HashDroid"/>
-    <hyperlink ref="K19" r:id="rId81" display="https://github.com/enricocid/Music-Player-GO"/>
-    <hyperlink ref="L19" r:id="rId82" display="https://github.com/enricocid/Music-Player-GO/issues"/>
-    <hyperlink ref="M19" r:id="rId83" display="https://github.com/enricocid/Music-Player-GO/releases"/>
-    <hyperlink ref="N19" r:id="rId84" display="https://paypal.me/enricocid"/>
-    <hyperlink ref="Q19" r:id="rId85" display="https://play.google.com/store/apps/details?id=com.iven.musicplayergo"/>
-    <hyperlink ref="K20" r:id="rId86" display="https://github.com/w32blaster/helsinki-timetables"/>
-    <hyperlink ref="L20" r:id="rId87" display="https://github.com/w32blaster/helsinki-timetables/issues"/>
-    <hyperlink ref="Q20" r:id="rId88" display="https://play.google.com/store/apps/details?id=com.redblaster.hsl.main"/>
-    <hyperlink ref="J21" r:id="rId89" display="https://faltenreich.wordpress.com/2019/03/30/diaguard/"/>
-    <hyperlink ref="K21" r:id="rId90" display="https://github.com/Faltenreich/Diaguard"/>
-    <hyperlink ref="L21" r:id="rId91" display="https://github.com/Faltenreich/Diaguard/issues"/>
-    <hyperlink ref="M21" r:id="rId92" display="https://github.com/Faltenreich/Diaguard/releases"/>
-    <hyperlink ref="N21" r:id="rId93" display="https://www.paypal.com/cgi-bin/webscr?cmd=_s-xclick&amp;hosted_button_id=AM6HG633T4BWY&amp;source=url"/>
-    <hyperlink ref="Q21" r:id="rId94" display="https://play.google.com/store/apps/details?id=com.faltenreich.diaguard"/>
-    <hyperlink ref="K22" r:id="rId95" display="https://github.com/Frozen-Developers/android-periodic-table"/>
-    <hyperlink ref="L22" r:id="rId96" display="https://github.com/Frozen-Developers/android-periodic-table/issues"/>
-    <hyperlink ref="Q22" r:id="rId97" display="https://play.google.com/store/apps/details?id=com.frozendevs.periodictable"/>
-    <hyperlink ref="J23" r:id="rId98" display="https://arxiv.gbt.codes/"/>
-    <hyperlink ref="K23" r:id="rId99" display="https://github.com/GarrettBeatty/arXiv-eXplorer"/>
-    <hyperlink ref="L23" r:id="rId100" display="https://github.com/GarrettBeatty/arXiv-eXplorer/issues"/>
-    <hyperlink ref="Q23" r:id="rId101" display="https://play.google.com/store/apps/details?id=com.gbeatty.arxiv&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1"/>
-    <hyperlink ref="K24" r:id="rId102" display="https://github.com/JavaCafe01/PdfViewer"/>
-    <hyperlink ref="L24" r:id="rId103" display="https://github.com/JavaCafe01/PdfViewer/issues"/>
-    <hyperlink ref="N24" r:id="rId104" display="https://www.paypal.me/gsnathan"/>
-    <hyperlink ref="Q24" r:id="rId105" display="https://play.google.com/store/apps/details?id=com.gsnathan.pdfviewer"/>
-    <hyperlink ref="K25" r:id="rId106" display="https://github.com/andviane/google-books-android-viewer"/>
-    <hyperlink ref="L25" r:id="rId107" display="https://github.com/andviane/google-books-android-viewer/issues"/>
-    <hyperlink ref="Q25" r:id="rId108" display="https://play.google.com/store/apps/details?id=com.ames.books"/>
-    <hyperlink ref="K26" r:id="rId109" display="https://github.com/xorum-io/open_money_tracker"/>
-    <hyperlink ref="L26" r:id="rId110" display="https://github.com/xorum-io/open_money_tracker/issues"/>
-    <hyperlink ref="M26" r:id="rId111" display="https://github.com/xorum-io/open_money_tracker/releases"/>
-    <hyperlink ref="Q26" r:id="rId112" display="https://play.google.com/store/apps/details?id=com.blogspot.e_kanivets.moneytracker"/>
-    <hyperlink ref="K27" r:id="rId113" display="https://github.com/Frozen-Developers/android-cache-cleaner"/>
-    <hyperlink ref="L27" r:id="rId114" display="https://github.com/Frozen-Developers/android-cache-cleaner/issues"/>
-    <hyperlink ref="Q27" r:id="rId115" display="https://play.google.com/store/apps/details?id=com.frozendevs.cache.cleaner"/>
-    <hyperlink ref="J28" r:id="rId116" display="https://sites.google.com/site/danielyehunkim/"/>
-    <hyperlink ref="K28" r:id="rId117" display="https://github.com/dkim0419/SoundRecorder"/>
-    <hyperlink ref="L28" r:id="rId118" display="https://github.com/dkim0419/SoundRecorder/issues"/>
-    <hyperlink ref="M28" r:id="rId119" display="https://github.com/dkim0419/SoundRecorder/releases"/>
-    <hyperlink ref="Q28" r:id="rId120" display="https://play.google.com/store/apps/details?id=com.danielkim.soundrecorder"/>
-    <hyperlink ref="J29" r:id="rId121" display="https://www.quicklyric.be/"/>
-    <hyperlink ref="K29" r:id="rId122" display="https://github.com/QuickLyric/QuickLyric"/>
-    <hyperlink ref="L29" r:id="rId123" display="https://github.com/QuickLyric/QuickLyric/issues"/>
-    <hyperlink ref="Q29" r:id="rId124" display="https://play.google.com/store/apps/details?id=com.geecko.QuickLyric"/>
+    <hyperlink ref="J2" r:id="rId1" display="https://opendocument.app/"/>
+    <hyperlink ref="K2" r:id="rId2" display="https://github.com/TomTasche/OpenDocument.droid"/>
+    <hyperlink ref="L2" r:id="rId3" display="https://github.com/TomTasche/OpenDocument.droid/issues"/>
+    <hyperlink ref="Q2" r:id="rId4" display="https://play.google.com/store/apps/details?id=at.tomtasche.reader"/>
+    <hyperlink ref="J3" r:id="rId5" display="https://vanilla-music.github.io/"/>
+    <hyperlink ref="K3" r:id="rId6" display="https://github.com/vanilla-music/vanilla"/>
+    <hyperlink ref="L3" r:id="rId7" display="https://github.com/vanilla-music/vanilla/issues"/>
+    <hyperlink ref="M3" r:id="rId8" display="https://cdn.rawgit.com/vanilla-music/vanilla/HEAD/app/src/main/assets/about.html"/>
+    <hyperlink ref="Q3" r:id="rId9" display="https://play.google.com/store/apps/details?id=com.kanedias.vanilla.coverfetch"/>
+    <hyperlink ref="J4" r:id="rId10" display="https://rocket.chat/"/>
+    <hyperlink ref="K4" r:id="rId11" display="https://github.com/RocketChat/Rocket.Chat.ReactNative"/>
+    <hyperlink ref="L4" r:id="rId12" display="https://github.com/RocketChat/Rocket.Chat.ReactNative/issues"/>
+    <hyperlink ref="M4" r:id="rId13" display="https://github.com/RocketChat/Rocket.Chat.ReactNative/releases"/>
+    <hyperlink ref="N4" r:id="rId14" location="donate" display="https://github.com/RocketChat/Rocket.Chat#donate"/>
+    <hyperlink ref="Q4" r:id="rId15" display="https://play.google.com/store/apps/details?id=chat.rocket.android"/>
+    <hyperlink ref="J5" r:id="rId16" display="https://epitre.co/"/>
+    <hyperlink ref="K5" r:id="rId17" display="https://github.com/HackMyChurch/aelf-dailyreadings"/>
+    <hyperlink ref="L5" r:id="rId18" display="https://github.com/HackMyChurch/aelf-dailyreadings/issues"/>
+    <hyperlink ref="Q5" r:id="rId19" display="https://play.google.com/store/apps/details?id=co.epitre.aelf_lectures"/>
+    <hyperlink ref="J6" r:id="rId20" display="https://simple-last-fm-scrobbler.github.io/sls"/>
+    <hyperlink ref="K6" r:id="rId21" display="https://github.com/simple-last-fm-scrobbler/sls"/>
+    <hyperlink ref="L6" r:id="rId22" display="https://github.com/simple-last-fm-scrobbler/sls/issues"/>
+    <hyperlink ref="M6" r:id="rId23" display="https://github.com/simple-last-fm-scrobbler/sls/blob/HEAD/app/src/main/assets/changelog.txt"/>
+    <hyperlink ref="Q6" r:id="rId24" display="https://play.google.com/store/apps/details?id=com.adam.aslfms&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1"/>
+    <hyperlink ref="J7" r:id="rId25" display="https://forum.xda-developers.com/android/apps-games/app-amaze-file-managermaterial-theme-t2937314"/>
+    <hyperlink ref="K7" r:id="rId26" display="https://github.com/TeamAmaze/AmazeFileManager"/>
+    <hyperlink ref="L7" r:id="rId27" display="https://github.com/TeamAmaze/AmazeFileManager/issues"/>
+    <hyperlink ref="Q7" r:id="rId28" display="https://play.google.com/store/apps/details?id=com.amaze.filemanager"/>
+    <hyperlink ref="K8" r:id="rId29" display="https://github.com/andviane/google-books-android-viewer"/>
+    <hyperlink ref="L8" r:id="rId30" display="https://github.com/andviane/google-books-android-viewer/issues"/>
+    <hyperlink ref="Q8" r:id="rId31" display="https://play.google.com/store/apps/details?id=com.ames.books"/>
+    <hyperlink ref="K9" r:id="rId32" display="https://github.com/goodtime-productivity/Goodtime"/>
+    <hyperlink ref="L9" r:id="rId33" display="https://github.com/goodtime-productivity/Goodtime/issues"/>
+    <hyperlink ref="M9" r:id="rId34" display="https://github.com/goodtime-productivity/Goodtime/releases"/>
+    <hyperlink ref="N9" r:id="rId35" display="https://www.paypal.com/cgi-bin/webscr?cmd=_s-xclick&amp;hosted_button_id=CH2SJKS6GXG6L"/>
+    <hyperlink ref="Q9" r:id="rId36" display="https://play.google.com/store/apps/details?id=com.apps.adrcotfas.goodtime&amp;utm_source=global_co&amp;utm_medium=prtnr&amp;utm_content=Mar2515&amp;utm_campaign=PartBadge&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1"/>
+    <hyperlink ref="K10" r:id="rId37" display="https://github.com/yuriykulikov/AlarmClock"/>
+    <hyperlink ref="L10" r:id="rId38" display="https://github.com/yuriykulikov/AlarmClock/issues"/>
+    <hyperlink ref="M10" r:id="rId39" display="https://github.com/yuriykulikov/AlarmClock/commits/develop"/>
+    <hyperlink ref="N10" r:id="rId40" display="paypal.me/YuriyKulikov"/>
+    <hyperlink ref="Q10" r:id="rId41" display="https://play.google.com/store/apps/details?id=com.better.alarm"/>
+    <hyperlink ref="K11" r:id="rId42" display="https://github.com/xorum-io/open_money_tracker"/>
+    <hyperlink ref="L11" r:id="rId43" display="https://github.com/xorum-io/open_money_tracker/issues"/>
+    <hyperlink ref="M11" r:id="rId44" display="https://github.com/xorum-io/open_money_tracker/releases"/>
+    <hyperlink ref="Q11" r:id="rId45" display="https://play.google.com/store/apps/details?id=com.blogspot.e_kanivets.moneytracker"/>
+    <hyperlink ref="J12" r:id="rId46" display="https://github.com/persian-calendar/DroidPersianCalendar/wiki"/>
+    <hyperlink ref="K12" r:id="rId47" display="https://github.com/persian-calendar/DroidPersianCalendar"/>
+    <hyperlink ref="L12" r:id="rId48" display="https://github.com/persian-calendar/DroidPersianCalendar/issues"/>
+    <hyperlink ref="M12" r:id="rId49" display="https://github.com/persian-calendar/DroidPersianCalendar/releases"/>
+    <hyperlink ref="Q12" r:id="rId50" display="https://play.google.com/store/apps/details?id=com.byagowi.persiancalendar"/>
+    <hyperlink ref="J13" r:id="rId51" display="https://sites.google.com/site/danielyehunkim/"/>
+    <hyperlink ref="K13" r:id="rId52" display="https://github.com/dkim0419/SoundRecorder"/>
+    <hyperlink ref="L13" r:id="rId53" display="https://github.com/dkim0419/SoundRecorder/issues"/>
+    <hyperlink ref="M13" r:id="rId54" display="https://github.com/dkim0419/SoundRecorder/releases"/>
+    <hyperlink ref="Q13" r:id="rId55" display="https://play.google.com/store/apps/details?id=com.danielkim.soundrecorder"/>
+    <hyperlink ref="J14" r:id="rId56" display="https://duckduckgo.com/app"/>
+    <hyperlink ref="K14" r:id="rId57" display="https://github.com/duckduckgo/Android"/>
+    <hyperlink ref="L14" r:id="rId58" display="https://github.com/duckduckgo/Android/issues"/>
+    <hyperlink ref="M14" r:id="rId59" display="https://github.com/duckduckgo/Android/releases"/>
+    <hyperlink ref="Q14" r:id="rId60" display="https://play.google.com/store/apps/details?id=com.duckduckgo.mobile.android"/>
+    <hyperlink ref="J15" r:id="rId61" display="https://faltenreich.wordpress.com/2019/03/30/diaguard/"/>
+    <hyperlink ref="K15" r:id="rId62" display="https://github.com/Faltenreich/Diaguard"/>
+    <hyperlink ref="L15" r:id="rId63" display="https://github.com/Faltenreich/Diaguard/issues"/>
+    <hyperlink ref="M15" r:id="rId64" display="https://github.com/Faltenreich/Diaguard/releases"/>
+    <hyperlink ref="N15" r:id="rId65" display="https://www.paypal.com/cgi-bin/webscr?cmd=_s-xclick&amp;hosted_button_id=AM6HG633T4BWY&amp;source=url"/>
+    <hyperlink ref="Q15" r:id="rId66" display="https://play.google.com/store/apps/details?id=com.faltenreich.diaguard"/>
+    <hyperlink ref="K16" r:id="rId67" display="https://github.com/Frozen-Developers/android-cache-cleaner"/>
+    <hyperlink ref="L16" r:id="rId68" display="https://github.com/Frozen-Developers/android-cache-cleaner/issues"/>
+    <hyperlink ref="Q16" r:id="rId69" display="https://play.google.com/store/apps/details?id=com.frozendevs.cache.cleaner"/>
+    <hyperlink ref="K17" r:id="rId70" display="https://github.com/Frozen-Developers/android-periodic-table"/>
+    <hyperlink ref="L17" r:id="rId71" display="https://github.com/Frozen-Developers/android-periodic-table/issues"/>
+    <hyperlink ref="Q17" r:id="rId72" display="https://play.google.com/store/apps/details?id=com.frozendevs.periodictable"/>
+    <hyperlink ref="J18" r:id="rId73" display="https://k9mail.app/"/>
+    <hyperlink ref="K18" r:id="rId74" display="https://github.com/k9mail/k-9"/>
+    <hyperlink ref="L18" r:id="rId75" display="https://github.com/k9mail/k-9/issues"/>
+    <hyperlink ref="M18" r:id="rId76" display="https://k9mail.app/k-9/changelog_5.6-MAINT_branch.xml"/>
+    <hyperlink ref="N18" r:id="rId77" display="https://github.com/sponsors/cketti"/>
+    <hyperlink ref="Q18" r:id="rId78" display="https://play.google.com/store/apps/details?id=com.fsck.k9"/>
+    <hyperlink ref="J19" r:id="rId79" display="https://arxiv.gbt.codes/"/>
+    <hyperlink ref="K19" r:id="rId80" display="https://github.com/GarrettBeatty/arXiv-eXplorer"/>
+    <hyperlink ref="L19" r:id="rId81" display="https://github.com/GarrettBeatty/arXiv-eXplorer/issues"/>
+    <hyperlink ref="Q19" r:id="rId82" display="https://play.google.com/store/apps/details?id=com.gbeatty.arxiv&amp;pcampaignid=MKT-Other-global-all-co-prtnr-py-PartBadge-Mar2515-1"/>
+    <hyperlink ref="J20" r:id="rId83" display="https://www.quicklyric.be/"/>
+    <hyperlink ref="K20" r:id="rId84" display="https://github.com/QuickLyric/QuickLyric"/>
+    <hyperlink ref="L20" r:id="rId85" display="https://github.com/QuickLyric/QuickLyric/issues"/>
+    <hyperlink ref="Q20" r:id="rId86" display="https://play.google.com/store/apps/details?id=com.geecko.QuickLyric"/>
+    <hyperlink ref="J21" r:id="rId87" display="https://wdkapps.github.io"/>
+    <hyperlink ref="K21" r:id="rId88" display="https://github.com/wdkapps/FillUp"/>
+    <hyperlink ref="L21" r:id="rId89" display="https://github.com/wdkapps/FillUp/issues"/>
+    <hyperlink ref="Q21" r:id="rId90" display="https://play.google.com/store/apps/details?id=com.github.wdkapps.fillup"/>
+    <hyperlink ref="J22" r:id="rId91" display="https://support.google.com/accounts/bin/answer.py?hl=enWeb%20Site:answer=1066447"/>
+    <hyperlink ref="K22" r:id="rId92" display="https://github.com/google/google-authenticator-android"/>
+    <hyperlink ref="L22" r:id="rId93" display="https://github.com/google/google-authenticator-android/issues"/>
+    <hyperlink ref="M22" r:id="rId94" display="https://github.com/google/google-authenticator-android/blob/HEAD/ChangeLog"/>
+    <hyperlink ref="Q22" r:id="rId95" display="https://play.google.com/store/apps/details?id=com.google.android.apps.authenticator2"/>
+    <hyperlink ref="J23" r:id="rId96" display="https://github.com/zxing/zxing/wiki/Frequently-Asked-Questions"/>
+    <hyperlink ref="K23" r:id="rId97" display="https://github.com/zxing/zxing"/>
+    <hyperlink ref="L23" r:id="rId98" display="https://github.com/zxing/zxing/issues"/>
+    <hyperlink ref="M23" r:id="rId99" display="https://github.com/zxing/zxing/releases"/>
+    <hyperlink ref="Q23" r:id="rId100" display="https://play.google.com/store/apps/details?id=com.google.zxing.client.android"/>
+    <hyperlink ref="J24" r:id="rId101" display="https://greenaddress.it/"/>
+    <hyperlink ref="K24" r:id="rId102" display="https://github.com/blockstream/green_android"/>
+    <hyperlink ref="L24" r:id="rId103" display="https://github.com/blockstream/green_android/issues"/>
+    <hyperlink ref="M24" r:id="rId104" display="https://github.com/blockstream/green_android/releases"/>
+    <hyperlink ref="Q24" r:id="rId105" display="https://play.google.com/store/apps/details?id=com.greenaddress.greenbits_android_wallet"/>
+    <hyperlink ref="K25" r:id="rId106" display="https://github.com/JavaCafe01/PdfViewer"/>
+    <hyperlink ref="L25" r:id="rId107" display="https://github.com/JavaCafe01/PdfViewer/issues"/>
+    <hyperlink ref="N25" r:id="rId108" display="https://www.paypal.me/gsnathan"/>
+    <hyperlink ref="Q25" r:id="rId109" display="https://play.google.com/store/apps/details?id=com.gsnathan.pdfviewer"/>
+    <hyperlink ref="K26" r:id="rId110" display="https://github.com/HobbyOneDroid/HashDroid"/>
+    <hyperlink ref="L26" r:id="rId111" display="https://github.com/HobbyOneDroid/HashDroid/issues"/>
+    <hyperlink ref="Q26" r:id="rId112" display="https://play.google.com/store/apps/details?id=com.hobbyone.HashDroid"/>
+    <hyperlink ref="K27" r:id="rId113" display="https://github.com/enricocid/Music-Player-GO"/>
+    <hyperlink ref="L27" r:id="rId114" display="https://github.com/enricocid/Music-Player-GO/issues"/>
+    <hyperlink ref="M27" r:id="rId115" display="https://github.com/enricocid/Music-Player-GO/releases"/>
+    <hyperlink ref="N27" r:id="rId116" display="https://paypal.me/enricocid"/>
+    <hyperlink ref="Q27" r:id="rId117" display="https://play.google.com/store/apps/details?id=com.iven.musicplayergo"/>
+    <hyperlink ref="K28" r:id="rId118" display="https://github.com/w32blaster/helsinki-timetables"/>
+    <hyperlink ref="L28" r:id="rId119" display="https://github.com/w32blaster/helsinki-timetables/issues"/>
+    <hyperlink ref="Q28" r:id="rId120" display="https://play.google.com/store/apps/details?id=com.redblaster.hsl.main"/>
+    <hyperlink ref="J29" r:id="rId121" display="http://forum.xda-developers.com/android/apps-games/app-screen-shift-change-screen-t3138718"/>
+    <hyperlink ref="K29" r:id="rId122" display="https://github.com/aravindsagar/ScreenShift"/>
+    <hyperlink ref="L29" r:id="rId123" display="https://github.com/aravindsagar/ScreenShift/issues"/>
+    <hyperlink ref="Q29" r:id="rId124" display="https://play.google.com/store/apps/details?id=com.sagar.screenshift2"/>
+    <hyperlink ref="K30" r:id="rId125" display="https://github.com/xbmc/xbmc"/>
+    <hyperlink ref="K31" r:id="rId126" display="https://github.com/guardianproject/Orbot"/>
+    <hyperlink ref="K32" r:id="rId127" display="https://github.com/antennapod/AntennaPod"/>
+    <hyperlink ref="K34" r:id="rId128" display="https://github.com/federicoiosue/Omni-Notes"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3949,7 +4065,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId125"/>
+  <drawing r:id="rId129"/>
 </worksheet>
 </file>
 
@@ -3964,7 +4080,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.16"/>
@@ -3985,10 +4101,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,10 +4112,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,10 +4123,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4018,10 +4134,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,10 +4145,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,10 +4156,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,10 +4167,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,10 +4178,10 @@
         <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,10 +4189,10 @@
         <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,10 +4200,10 @@
         <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,10 +4211,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,10 +4222,10 @@
         <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,10 +4233,10 @@
         <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,10 +4244,10 @@
         <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4139,10 +4255,10 @@
         <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,10 +4266,10 @@
         <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,10 +4277,10 @@
         <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,10 +4288,10 @@
         <v>114</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,10 +4299,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,10 +4310,10 @@
         <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,10 +4321,10 @@
         <v>145</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,10 +4332,10 @@
         <v>152</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,10 +4343,10 @@
         <v>156</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,10 +4354,10 @@
         <v>158</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,10 +4365,10 @@
         <v>162</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,10 +4376,10 @@
         <v>165</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,10 +4387,10 @@
         <v>166</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,10 +4398,10 @@
         <v>171</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,10 +4409,10 @@
         <v>184</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,10 +4420,10 @@
         <v>188</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,10 +4431,10 @@
         <v>196</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,10 +4442,10 @@
         <v>199</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4337,10 +4453,10 @@
         <v>201</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4348,10 +4464,10 @@
         <v>205</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,10 +4475,10 @@
         <v>212</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,10 +4486,10 @@
         <v>215</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,10 +4497,10 @@
         <v>216</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,10 +4508,10 @@
         <v>219</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,10 +4519,10 @@
         <v>220</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,10 +4530,10 @@
         <v>236</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,10 +4541,10 @@
         <v>240</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4439,7 +4555,7 @@
         <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,10 +4563,10 @@
         <v>266</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,10 +4574,10 @@
         <v>267</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,10 +4585,10 @@
         <v>274</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4480,10 +4596,10 @@
         <v>278</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,10 +4607,10 @@
         <v>280</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,10 +4618,10 @@
         <v>287</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,10 +4629,10 @@
         <v>288</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,10 +4640,10 @@
         <v>289</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,10 +4651,10 @@
         <v>290</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,10 +4662,10 @@
         <v>295</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,10 +4673,10 @@
         <v>298</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,10 +4684,10 @@
         <v>303</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,10 +4695,10 @@
         <v>304</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,10 +4706,10 @@
         <v>306</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,10 +4717,10 @@
         <v>309</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,10 +4728,10 @@
         <v>314</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,10 +4739,10 @@
         <v>317</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4634,10 +4750,10 @@
         <v>318</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,10 +4761,10 @@
         <v>339</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,10 +4772,10 @@
         <v>343</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,10 +4783,10 @@
         <v>346</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,10 +4794,10 @@
         <v>350</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,10 +4805,10 @@
         <v>351</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,10 +4816,10 @@
         <v>353</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,10 +4827,10 @@
         <v>355</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,10 +4838,10 @@
         <v>356</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,10 +4849,10 @@
         <v>357</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,10 +4860,10 @@
         <v>364</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,10 +4871,10 @@
         <v>380</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,10 +4882,10 @@
         <v>392</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,10 +4893,10 @@
         <v>399</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,10 +4904,10 @@
         <v>402</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,10 +4915,10 @@
         <v>407</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4810,10 +4926,10 @@
         <v>411</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,10 +4937,10 @@
         <v>412</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,10 +4948,10 @@
         <v>421</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4843,10 +4959,10 @@
         <v>423</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,10 +4970,10 @@
         <v>430</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,10 +4981,10 @@
         <v>431</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4876,10 +4992,10 @@
         <v>437</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,10 +5003,10 @@
         <v>440</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,10 +5014,10 @@
         <v>457</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,10 +5025,10 @@
         <v>459</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,10 +5036,10 @@
         <v>482</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,10 +5047,10 @@
         <v>506</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4942,10 +5058,10 @@
         <v>508</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,10 +5069,10 @@
         <v>514</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,10 +5080,10 @@
         <v>515</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,10 +5091,10 @@
         <v>527</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4986,10 +5102,10 @@
         <v>535</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,10 +5113,10 @@
         <v>538</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,10 +5124,10 @@
         <v>541</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,10 +5135,10 @@
         <v>545</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,10 +5146,10 @@
         <v>556</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5041,10 +5157,10 @@
         <v>560</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,10 +5168,10 @@
         <v>594</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,10 +5179,10 @@
         <v>595</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,10 +5190,10 @@
         <v>596</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,10 +5201,10 @@
         <v>597</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,10 +5212,10 @@
         <v>599</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,10 +5223,10 @@
         <v>601</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,10 +5234,10 @@
         <v>603</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5129,10 +5245,10 @@
         <v>608</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,10 +5256,10 @@
         <v>609</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,10 +5267,10 @@
         <v>627</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,10 +5278,10 @@
         <v>628</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,10 +5289,10 @@
         <v>630</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,10 +5300,10 @@
         <v>640</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,10 +5311,10 @@
         <v>641</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,10 +5322,10 @@
         <v>644</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,10 +5333,10 @@
         <v>645</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5228,10 +5344,10 @@
         <v>646</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,10 +5355,10 @@
         <v>650</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5250,10 +5366,10 @@
         <v>655</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,10 +5377,10 @@
         <v>656</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5272,10 +5388,10 @@
         <v>657</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,10 +5399,10 @@
         <v>658</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,10 +5410,10 @@
         <v>659</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,10 +5421,10 @@
         <v>660</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,10 +5432,10 @@
         <v>669</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,10 +5443,10 @@
         <v>672</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,10 +5454,10 @@
         <v>676</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,10 +5465,10 @@
         <v>687</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,10 +5476,10 @@
         <v>696</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,10 +5487,10 @@
         <v>718</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5382,10 +5498,10 @@
         <v>719</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5393,10 +5509,10 @@
         <v>721</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,10 +5520,10 @@
         <v>727</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,10 +5531,10 @@
         <v>734</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5426,10 +5542,10 @@
         <v>739</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,10 +5553,10 @@
         <v>741</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,10 +5564,10 @@
         <v>775</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,10 +5575,10 @@
         <v>779</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,10 +5586,10 @@
         <v>790</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,10 +5597,10 @@
         <v>794</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,10 +5608,10 @@
         <v>800</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5503,10 +5619,10 @@
         <v>801</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,10 +5630,10 @@
         <v>803</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,10 +5641,10 @@
         <v>804</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,10 +5652,10 @@
         <v>805</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,10 +5663,10 @@
         <v>812</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5558,10 +5674,10 @@
         <v>824</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>211</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5569,10 +5685,10 @@
         <v>834</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,10 +5696,10 @@
         <v>838</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,10 +5707,10 @@
         <v>846</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,10 +5718,10 @@
         <v>860</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,10 +5729,10 @@
         <v>861</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,10 +5740,10 @@
         <v>865</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,10 +5751,10 @@
         <v>867</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5646,10 +5762,10 @@
         <v>869</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,10 +5773,10 @@
         <v>870</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5668,10 +5784,10 @@
         <v>873</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,10 +5795,10 @@
         <v>876</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5690,10 +5806,10 @@
         <v>899</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5701,10 +5817,10 @@
         <v>901</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,10 +5828,10 @@
         <v>904</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5723,10 +5839,10 @@
         <v>912</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,10 +5850,10 @@
         <v>914</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5745,10 +5861,10 @@
         <v>915</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,10 +5872,10 @@
         <v>922</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,10 +5883,10 @@
         <v>926</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,10 +5894,10 @@
         <v>927</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,10 +5905,10 @@
         <v>933</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5800,10 +5916,10 @@
         <v>934</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,10 +5927,10 @@
         <v>936</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,10 +5938,10 @@
         <v>941</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5833,10 +5949,10 @@
         <v>951</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,10 +5960,10 @@
         <v>952</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5855,10 +5971,10 @@
         <v>960</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5866,10 +5982,10 @@
         <v>962</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,10 +5993,10 @@
         <v>963</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,10 +6004,10 @@
         <v>964</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,10 +6015,10 @@
         <v>965</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>623</v>
+        <v>336</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5910,10 +6026,10 @@
         <v>967</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,10 +6037,10 @@
         <v>980</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5932,10 +6048,10 @@
         <v>984</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5960,190 +6076,190 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="14.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>497</v>
+      <c r="A1" s="16" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>631</v>
+      <c r="A10" s="16" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>632</v>
+      <c r="A11" s="16" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>633</v>
+      <c r="A12" s="16" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>405</v>
+      <c r="A13" s="16" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
-        <v>619</v>
-      </c>
-    </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
-        <v>401</v>
+      <c r="A27" s="16" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
-        <v>471</v>
+      <c r="A28" s="16" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>557</v>
+      <c r="A29" s="16" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>213</v>
+      <c r="A31" s="16" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>32</v>
+      <c r="A32" s="16" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>519</v>
+      <c r="A33" s="16" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>611</v>
+      <c r="A34" s="16" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>459</v>
+      <c r="A35" s="16" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>499</v>
+      <c r="A36" s="16" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
